--- a/results/AMPL4/AMPL4_gemini2.5pro.xlsx
+++ b/results/AMPL4/AMPL4_gemini2.5pro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c-nayoughi/Documents/Paper content/Github/results/AMPL4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c-nayoughi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE616D33-066F-114B-AF9B-E7144800F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEDF2D0-DEA3-F74A-B78F-98E409CDDAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2529,10 +2529,10 @@
         <v>9</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -2549,10 +2549,10 @@
         <v>10</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3830,10 +3830,10 @@
         <v>15</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -3864,10 +3864,10 @@
         <v>15</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
